--- a/data/trans_bre/CoPsoQ_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CoPsoQ_R2-Clase-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>0.8599200951391217</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-3.107713058870592</v>
+        <v>-3.107713058870609</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>-0.08735100009218819</v>
@@ -627,7 +627,7 @@
         <v>0.01527161262652714</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>-0.08000239196587053</v>
+        <v>-0.08000239196587093</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-13.82212930430156</v>
+        <v>-14.80169702852695</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.956378088257305</v>
+        <v>-8.472703304664742</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-18.29554513113689</v>
+        <v>-19.38849552197429</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.2109649166411526</v>
+        <v>-0.2228604537307512</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1427224472717754</v>
+        <v>-0.1404285267989104</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3814783490102633</v>
+        <v>-0.4173943586329695</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.826978968819455</v>
+        <v>3.407103751544474</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.881405544141101</v>
+        <v>10.74338754399577</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.52989938883151</v>
+        <v>10.3134370324722</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.08194964857818912</v>
+        <v>0.05857440235705415</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1899535638550029</v>
+        <v>0.2101064851519162</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3964733994695843</v>
+        <v>0.3392210001979004</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>-2.366666208689683</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3.249700607186279</v>
+        <v>3.249700607186262</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.2721967577946016</v>
@@ -709,7 +709,7 @@
         <v>-0.04073745892750749</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08766763888970681</v>
+        <v>0.08766763888970636</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-28.96326593917212</v>
+        <v>-29.2132514959474</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-12.19469801606296</v>
+        <v>-11.50147677108932</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-12.98213192614565</v>
+        <v>-13.40225601172643</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.412358866722151</v>
+        <v>-0.4046283759246698</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1995621354509262</v>
+        <v>-0.1812917619319176</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2811763339776395</v>
+        <v>-0.2954655672073158</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-7.827902433343701</v>
+        <v>-7.809908690697433</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.741051588297676</v>
+        <v>7.969380547526371</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>19.82874785461478</v>
+        <v>18.69498348295679</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.1218928795061125</v>
+        <v>-0.1231796836288267</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1400415947698626</v>
+        <v>0.1485703571079799</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7583191668450225</v>
+        <v>0.6654928588804565</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-9.034445929590577</v>
+        <v>-9.994535433712725</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-26.27921788646481</v>
+        <v>-26.51856700902707</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.345121375504667</v>
+        <v>-4.930680757208735</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.1552809455499163</v>
+        <v>-0.1676539400864913</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4217255934545441</v>
+        <v>-0.4244153292547531</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1003465617361261</v>
+        <v>-0.1096145783726889</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.88415971654643</v>
+        <v>13.42466122027904</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.623336705376316</v>
+        <v>2.005644773436768</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>39.26563943688391</v>
+        <v>39.89339581144334</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.2720315643707606</v>
+        <v>0.255919975007006</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.02656208942753063</v>
+        <v>0.03534837403832294</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.17346773959956</v>
+        <v>1.203043528483897</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>7.529517634551453</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14.30631282234155</v>
+        <v>14.30631282234157</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1008765801922828</v>
@@ -873,7 +873,7 @@
         <v>0.1379908168236211</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3565375748649343</v>
+        <v>0.3565375748649348</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.633661432559606</v>
+        <v>-2.820384973119581</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.164356041929517</v>
+        <v>0.3539782430515062</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.093885570835958</v>
+        <v>0.2360308483040336</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.04699730917133611</v>
+        <v>-0.05079164772176693</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.02006918587439804</v>
+        <v>0.00395503648119055</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04221981627423115</v>
+        <v>0.02695094912058791</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>12.71782533503567</v>
+        <v>12.61281500115181</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>14.8238844621293</v>
+        <v>13.71239654467388</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>26.6678308770753</v>
+        <v>26.32135987070934</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2560964081309784</v>
+        <v>0.260470182226847</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2889224202801299</v>
+        <v>0.2654847963525445</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8382156133828923</v>
+        <v>0.8209015233286625</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>-1.685012529255764</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6.808398511561426</v>
+        <v>6.808398511561419</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>-0.1153239024761096</v>
@@ -955,7 +955,7 @@
         <v>-0.03797405595449316</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.166149870324751</v>
+        <v>0.1661498703247508</v>
       </c>
     </row>
     <row r="17">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-17.92275119614462</v>
+        <v>-17.22555857581051</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-11.06957857325216</v>
+        <v>-11.80890778599518</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-10.07846363339123</v>
+        <v>-10.69519488034834</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.2981624814352946</v>
+        <v>-0.2905737145687447</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2268795779657964</v>
+        <v>-0.2418536340775186</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1995253254849001</v>
+        <v>-0.2090439835865542</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.057931614630039</v>
+        <v>5.242731600942458</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.63509269420741</v>
+        <v>7.997801430237975</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>21.36625389869688</v>
+        <v>21.45728508214459</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.1483969421206866</v>
+        <v>0.1119103614081733</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2237791260620642</v>
+        <v>0.2011576986741326</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7050106883069603</v>
+        <v>0.6929627493970735</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1028,7 @@
         <v>0.2867316195076519</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6.715651922135851</v>
+        <v>6.715651922135835</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.06777471889934621</v>
@@ -1037,7 +1037,7 @@
         <v>0.005220370847218392</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1675338844576722</v>
+        <v>0.1675338844576718</v>
       </c>
     </row>
     <row r="20">
@@ -1048,22 +1048,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-8.215108498362703</v>
+        <v>-8.225024960721125</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-4.175811274613796</v>
+        <v>-4.0403693559167</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-0.1359408477767969</v>
+        <v>-0.1632244102628772</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1378913046487514</v>
+        <v>-0.1361007181835698</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.07306105625357075</v>
+        <v>-0.07168592762638265</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.003038100810876607</v>
+        <v>-0.003339098808574678</v>
       </c>
     </row>
     <row r="21">
@@ -1074,22 +1074,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5593058686665126</v>
+        <v>0.6086087689168992</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>4.288079372222244</v>
+        <v>4.375322967835294</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>13.61127667831271</v>
+        <v>13.67792693339178</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.009940844770087035</v>
+        <v>0.01108820930098998</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.08037848356855772</v>
+        <v>0.08222687205445528</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3809406493978296</v>
+        <v>0.3925333726709568</v>
       </c>
     </row>
     <row r="22">
